--- a/generated_output/temp/us-core-device.xlsx
+++ b/generated_output/temp/us-core-device.xlsx
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -184,7 +184,7 @@
     <t>Device.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>Device.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -219,7 +219,7 @@
     <t>Device.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -251,7 +251,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -277,7 +277,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -303,7 +303,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -338,7 +338,7 @@
     <t>Device.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -363,7 +363,7 @@
     <t>Device.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceDefinition]]}
+    <t xml:space="preserve">Reference(DeviceDefinition)
 </t>
   </si>
   <si>
@@ -376,7 +376,7 @@
     <t>Device.udiCarrier</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -402,7 +402,7 @@
     <t>Device.udiCarrier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
 UDIBarcode String</t>
   </si>
   <si>
-    <t xml:space="preserve">base64Binary {[]} {[]}
+    <t xml:space="preserve">base64Binary
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>Device.statusReason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
     <t>Device.manufactureDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -920,7 +920,7 @@
     <t>Device.property.valueQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[]} {[]}
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
@@ -942,7 +942,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -964,7 +964,7 @@
     <t>Device.owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -983,7 +983,7 @@
     <t>Device.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1002,7 +1002,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -1039,7 +1039,7 @@
     <t>Device.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
     <t>Device.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1124,67 +1124,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
